--- a/DatasetsDescription/DatasetsDescription_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
+++ b/DatasetsDescription/DatasetsDescription_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
@@ -31,7 +31,7 @@
     <t>d. onset</t>
   </si>
   <si>
-    <t>CCI&lt;3</t>
+    <t>CCI&lt;2</t>
   </si>
   <si>
     <t>OTI+death</t>
@@ -100,13 +100,13 @@
     <t>13(12-15)</t>
   </si>
   <si>
-    <t>106(42.4%)</t>
-  </si>
-  <si>
-    <t>41(44.1%)</t>
-  </si>
-  <si>
-    <t>77(44.0%)</t>
+    <t>47(18.8%)</t>
+  </si>
+  <si>
+    <t>20(21.5%)</t>
+  </si>
+  <si>
+    <t>34(19.4%)</t>
   </si>
   <si>
     <t>51(20.4%)</t>
